--- a/data/test/Eval ProGeo_p1 - test.xlsx
+++ b/data/test/Eval ProGeo_p1 - test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kilian\Desktop\eval\course_eval\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Arbeit\50 CAU ProGeoSH\eval\course_eval\data\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E5588B-E3AC-4001-9831-06DEEFCFF951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D3FE2D7-0DAB-45CF-947C-AA78AFBF2472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Eval" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="122">
   <si>
     <t>A.0 Nutzer</t>
   </si>
@@ -188,30 +188,15 @@
     <t>Nein</t>
   </si>
   <si>
-    <t>ArcGIS</t>
-  </si>
-  <si>
     <t>&lt; 5 h pro Woche</t>
   </si>
   <si>
     <t>10 - 15 h pro Woche</t>
   </si>
   <si>
-    <t>MapInfo</t>
-  </si>
-  <si>
     <t>&gt; 20 h pro Woche</t>
   </si>
   <si>
-    <t>QGIS</t>
-  </si>
-  <si>
-    <t>Andere</t>
-  </si>
-  <si>
-    <t>Darstellen</t>
-  </si>
-  <si>
     <t>index</t>
   </si>
   <si>
@@ -399,342 +384,6 @@
   </si>
   <si>
     <t>Können Sie sich vorstellen zukünftig ein KI-gestütztes Hilfsangebot im Rahmen einer Online-Schulung in Anspruch zu nehmen?</t>
-  </si>
-  <si>
-    <t>Um mit QGIS arbeiten zu können, da nicht alles selbsterklärend ist.</t>
-  </si>
-  <si>
-    <t>Abfragen,Darstellen,Bearbeiten,Präsentieren</t>
-  </si>
-  <si>
-    <t>Die Grundfunktionen von QGIS zu lernen</t>
-  </si>
-  <si>
-    <t>Erlangung von Kenntnissen mit GIS</t>
-  </si>
-  <si>
-    <t>Paralleles Erfassen der Schulungsinhalte möglich.</t>
-  </si>
-  <si>
-    <t>Die schriftlichen Dokumentationen der Lerninhalte hätte ich gern vor den Videos gelesen.</t>
-  </si>
-  <si>
-    <t>Seit 10 Jahren arbeite ich recht intensiv mit und an den Openstreetmap-Daten und mit vielen der im Umfeld von OSM entstandenen Tools._x000D_Intention für die Teilnahme an dieser Schulung war die Vertiefung der QGIS-Kenntnisse.</t>
-  </si>
-  <si>
-    <t>Andere,QGIS</t>
-  </si>
-  <si>
-    <t>Betrachten,Abfragen,Darstellen,Bearbeiten,Präsentieren,Analysieren</t>
-  </si>
-  <si>
-    <t>Georeferenzierung von Scans_x000D_Verweis auf die Möglichkeit, auf recht einfach Art auch themenspezifische Vektordaten aus OSM zu extrahieren.</t>
-  </si>
-  <si>
-    <t>linearer Lernpfad, guter didaktischer Aufbau, Verfügbarkeit 24/7, ausreichend lange Bearbeitungszeit</t>
-  </si>
-  <si>
-    <t>Die Verwendung von OSM-Daten (ob als basemap oder als Digitalisiervorlage) erfordert entsprechend der ODbL für alle Veröffentlichungen einen Copyright-Hinweis der Form: "© OpenStreetMap-Mitwirkende" o.ä. ._x000D_Es wäre nett, wenn Sie künftig darauf hinweisen würden._x000D__x000D_Als AddOn ohne Prüfungsaufgabe der Vorschlag, auf die 'nun beginnende' 3D-Funktionalität von QGIS (Geländemodelle und LOD2-Gebäudedaten) einzugehen. Genau hier liegt ja die Stärke der digitalen Welt gegenüber der analogen (virtuality versus paper).</t>
-  </si>
-  <si>
-    <t>gern wieder :-)</t>
-  </si>
-  <si>
-    <t>Um mehr über das Arbeiten mit QGIS zu erfahren/zu lernen &amp; eine Auffrischung des Basiswissens zu erlagen.</t>
-  </si>
-  <si>
-    <t>Eine Online-Sprechstunde ist während des Kurses nicht nötig gewesen, deshalb auch keine Anmerkungen zu diesem Punkt.</t>
-  </si>
-  <si>
-    <t>Ein E-Mailsupport ist während des Kurses nicht nötig gewesen, deshalb auch keine Anmerkungen zu diesem Punkt.</t>
-  </si>
-  <si>
-    <t>Es werden keine Vorkenntnisse für diesen Kurs benötigt, was einen den Einstieg in die QGIS-Thematik erleichtert. Man wird Step by Step an und durch QGIS geführt. Zudem ist die freie Zeiteinteilung absolut von Vorteil.</t>
-  </si>
-  <si>
-    <t>Aufbauend auf die gelernten Grundlagen könnte ich mir auch gut noch 2-3 Lektionen vorstellen, für Fortgeschrittene NuterInnen.</t>
-  </si>
-  <si>
-    <t>Es wäre schön, wenn man die schriftliche Zusammenfassung des jeweiligen Kapitels downloaden könnte, um bei später auftauchenden Fragen Unterlagen zum Nachschauen zu haben. Ebenso wäre es schön, wenn die Videos auch downloadbar wären, um diese auch offline bei schlechter Internetverbindung  - z.B. in der Bahn - anschauen zu können.</t>
-  </si>
-  <si>
-    <t>Geplante Erstellung eines digitalen Bestandskatasters für die Lübeck Port Authority (LPA) auf Basis QGIS oder ArcGIS.</t>
-  </si>
-  <si>
-    <t>Abfragen,Darstellen</t>
-  </si>
-  <si>
-    <t>- kein QGIS im Homeoffice möglich_x000D_- diverse Beschränkungen durch die IT der Hansestadt Lübeck (u.a. keine OpenStreetMap Dateien sichtbar)</t>
-  </si>
-  <si>
-    <t>Laden von AutoCAD-Dateien</t>
-  </si>
-  <si>
-    <t>- Superkonzept mit guten Beispielen</t>
-  </si>
-  <si>
-    <t>- Download der Lehrvideos!</t>
-  </si>
-  <si>
-    <t>zukünftige Umstellung auf QGIS_x000D_Wir sollen in die Lage versetzt werden, insbesondere Abfragen aus QGISD heraus zu generieren</t>
-  </si>
-  <si>
-    <t>Betrachten,Bearbeiten</t>
-  </si>
-  <si>
-    <t>die Videos von waren tlw. nur stockend abspielbar, bzw. ließen sich nicht korrekt laden</t>
-  </si>
-  <si>
-    <t>QGIS ist in meinem Betrieb noch Zukunftsmusik. Welche Anforderungen konkret benötigt werden, ist bisher noch unklar.</t>
-  </si>
-  <si>
-    <t>Vermutlich werden in der täglichen Arbeit mit QGIS einige der Schulungsibhalte nicht benötigt, dafür aber andere, die nicht so intensiv bearbeitet wurden (inhaltliche Abfragen aus Layern, Verschneiden von Layern, Ergänzen von Layern, etc..)</t>
-  </si>
-  <si>
-    <t>Den Gebrauch eines GIS Programmes kennen zu lernen, um festzustellen ob und in welchem Umfang dieses Programm im Amt eingesetzt werden kann.</t>
-  </si>
-  <si>
-    <t>Das Üben zum Einfügen eigener Datenstrukturen bzw. die Information wie die Daten dafür vorbereitet werden müssen.</t>
-  </si>
-  <si>
-    <t>Mir fehlt die Information, wie ich das Programm in der hiesigen Verwaltung nutzen kann. Kann ich z.B. Kanaldaten von Abwasserleitungen in das Programm einfügen und wie mach ich dieses.</t>
-  </si>
-  <si>
-    <t>Siehe 6.1</t>
-  </si>
-  <si>
-    <t>Unabhängiges Lehren</t>
-  </si>
-  <si>
-    <t>Mehr praktisches Üben! (Vormachen- Nachmachen- Üben)</t>
-  </si>
-  <si>
-    <t>Bitte in den Schulungszeiten Krankheit und Urlaub berücksichtigen.</t>
-  </si>
-  <si>
-    <t>Verknüpfung verschiedener arbeitsrelevanter Daten über Georeferenzierung.</t>
-  </si>
-  <si>
-    <t>Die Arbeitsabläufe sind etwas komplizierter, deshalb muss ich mir über die Einsteigerschulung herausgehende Fähigkeiten noch selbst aneignen. Die Schulung war aber ein idealer Start.</t>
-  </si>
-  <si>
-    <t>Interesse, berufliche Nutzung</t>
-  </si>
-  <si>
-    <t>zu Beginn kamen Fehlermeldungen, dass einzelne Erweiterungen nicht geladen werden konnten;_x000D_bei der Lektion, in der über Pellworm ein Polygon gelegt wurde, verschwanden dann immer alle Polygone (nur in der Ansicht; gespeichert wurde das und nach Neustart von QGis war es auch verfügbar) - wurde bei der Lektion schon angemerkt</t>
-  </si>
-  <si>
-    <t>wurde  nicht genutzt</t>
-  </si>
-  <si>
-    <t>wurde nicht genutzt</t>
-  </si>
-  <si>
-    <t>Mir war bis zum Schluss nicht klar, wie ich Daten externer Quellen einbinde; insbesondere wäre es hilfreich gewesen, eine kurze Einführung in die Vielzahl der Dienste, die es neben OSM gibt, zu bekommen._x000D_Hier waren auch Sprünge in den Videos, da die Daten "einfach da" waren.</t>
-  </si>
-  <si>
-    <t>freie zeitliche Gestaltung_x000D_Nachvollziehbarkeit der Arbeitsschritte durch die Videos_x000D_durch den strukturierten Aufbau ist der Einstieg ins Thema leichter als wenn man sich im Internet Einführungen sucht</t>
-  </si>
-  <si>
-    <t>Es sollte berücksichtigt werden, dass nicht jeder Rechner so schnell ist, wie die an der Uni. D.h. gerade für jene, die parallel die Arbeitsschritte mit abarbeiten, wären kurze Pausen hilfreich. Als Einsteiger bedarf es gelegentlich der Orientierung, da die Symbole nicht alle bekannt sind. Das Stoppen und Zurücksetzen des Videos war jedesmal eine Unterbrechung des Lernflusses. _x000D_Der erste Sprecher war zwar an sich langsamer, aber es war auch deutlich einfacher parallel mitzukommen._x000D__x000D_Schöner wäre es, zwischen Video und schriftliche Dokumentation wählen zu können. _x000D__x000D_Thematisch sollte um das Beschaffen/Einbinden von Daten und Diensten (s.o.) sowie Lizenzen ergänzt werden._x000D__x000D_Eine kurze Einführung in den Umgang mit den Lizenzen wäre hilfreich gewesen. Insbesondere bei der letzten Aufgabe, als die Lizenzrechte anzugeben waren, wäre es gut gewesen, wenn im zur Verfügung gestellten Datensatz die entsprechende Lizenz vermerkt worden wäre.</t>
-  </si>
-  <si>
-    <t>Eine Rückmeldung zu den erledigten Aufgaben wäre tatsächlich auch schön. Insbesondere die letzten Aufgaben waren keine Selbstgänger mehr.</t>
-  </si>
-  <si>
-    <t>Wissen explizit zu QGIS erweitern</t>
-  </si>
-  <si>
-    <t>ArcGIS,Andere,QGIS</t>
-  </si>
-  <si>
-    <t>musste nicht in Anspruch genommen werden, im Kontext konkreter Rückfragen sicherlich hilfreich.</t>
-  </si>
-  <si>
-    <t>musste nicht in Anspruch genommen werden</t>
-  </si>
-  <si>
-    <t>Nichts was in einer Einstiegsschulung thematisiert werden müsste. _x000D_Darüber hinaus wäre die Georeferenzierung von Rasterdaten hilfreich</t>
-  </si>
-  <si>
-    <t>Wissenstand rein aus dieser Schulung würde nicht ausreichen, Geodaten-management / -strukturen / -organisation in QGIS müsste noch thematisiert werden.</t>
-  </si>
-  <si>
-    <t>- praktische Anwendung der theoretischen Inhalte der Videos._x000D_- Möglichkeit, Inhalte nochmals in Videos erneut anzuschauen._x000D_- Bearbeitung der Module kann gut in den individuellen Arbeitsalltag / Zeitplan eingepasst werden</t>
-  </si>
-  <si>
-    <t>als Einstiegsschulung sehr gut strukturiert, sofern man noch keinerlei Kenntnisse im Umgang mit QGIS hat.</t>
-  </si>
-  <si>
-    <t>weiterführende Schulungen wären hilfreich, bei denen weitere Themengebiete (Georeferenzierung, Geodatenstrukturen in QGIS / Geodatenmanagement, Möglichkeiten der vorhandenen Tools ...) thematisiert werden</t>
-  </si>
-  <si>
-    <t>Einführung QGIS</t>
-  </si>
-  <si>
-    <t>Arbeiten mit Geodaten und Karten zu erstellen.</t>
-  </si>
-  <si>
-    <t>Meine Erfahrungen und auch mein aktives Arbeiten mit ArcView liegt viele Jahre zurück. Vereinzelt versuchte ich nun meine Kenntnisse aus ArcView im QGIS zu nutzten. Das gelang mir nur bedingt bzw. nur mit Netz-Recherche vorab. Ich erhoffte mir von der Schulung einen entsprechenden Zugang und die ersten Basics für QGIS. Was alles gehen kann, wusste ich von ArcView, aber wie ich das im QGIS abrufen kann, wusste ich vor der Schulung noch nicht.</t>
-  </si>
-  <si>
-    <t>Betrachten,Abfragen,Bearbeiten</t>
-  </si>
-  <si>
-    <t>Teilweise lief das Video sehr ruckelig, was aber ggf. auf meine Internet-Verbindung zurückzuführen ist. Ansonsten gab es keine Probleme.</t>
-  </si>
-  <si>
-    <t>Keine Anmerkungen, da nicht genutzt.</t>
-  </si>
-  <si>
-    <t>Die Erläuterung im Video folgt dem gleichen Aufbau wie die Erläuterungen im Text. Wenn sich im Zuge der Aufgabe doch Fragen ergeben, hat man ggf. das Video noch vor Augen und weiß, wo im Text man nachschauen kann!</t>
-  </si>
-  <si>
-    <t>Die Unterschiede der Koordinatensysteme ist mir bis zum Schluss nicht klar geworden. ggf. ist das nicht Aufgabe einer Q-Gis-Schulung aber wiederum essentiell im Umgang damit. Vielleicht lässt sich diesbezüglich noch etwas mehr erläutern.</t>
-  </si>
-  <si>
-    <t>Für meine Zwecke und mit meinen (Vor-)Kenntnissen war sie Schulung in Teilen sehr einfach bis sehr gut nachvollziehbar. Ich freue ich, dass ich die textlichen Zusammenfassungen für folgenden Arbeiten mit Q-Gis habe. Vielen Dank!</t>
-  </si>
-  <si>
-    <t>Mit der Einführung von XPlanung werde ich zukünftig auch mit QGIS arbeiten.</t>
-  </si>
-  <si>
-    <t>Dass es die Möglichkeit gibt, ist sehr gut. Auch wenn ich diese nicht genutzt habe.</t>
-  </si>
-  <si>
-    <t>Sehr schnelle Rückmeldung gehalten! Sehr gut!</t>
-  </si>
-  <si>
-    <t>Freie zeitliche Einteilung in den Arbeitsalltag!_x000D_Individuelle Wiederholung einzelner Sequenzen und stoppen des Videos, um die Schritte selber in QGIS durchzuarbeiten.</t>
-  </si>
-  <si>
-    <t>Am Anfang mehre praxisnahe Anwendungsbeispiele nennen, wofür QGIS genutzt werden kann (Ausblicke)._x000D_Hinweise wo man welche Grundlagen finden kann und welche es überhaupt alles gibt.</t>
-  </si>
-  <si>
-    <t>Bei der Anmeldebestätigung bitte noch einmal darauf hinweisen, welche QGIS-Version verwendet wird._x000D_Das Landesnetzt hat den Zugriff zu OpenStreetMaps blockiert, sodass ich die Schulung nicht vom Arbeitsplatz bei der Stadt Elmshorn durchführen konnte, sondern nur aus dem Home-Office. Dies ist aber wohl eher ein internes Problem. Ein Hinweis darauf in der Anmeldebestätigung wäre vielleicht hilfreich.</t>
-  </si>
-  <si>
-    <t>Auffrischung von damals gelerntem</t>
-  </si>
-  <si>
-    <t>Abfragen,Bearbeiten</t>
-  </si>
-  <si>
-    <t>Fach-Kompetenzerweiterung durch spezifische Softwarekenntnisse hier QGIS, um dieses beruflich und privat einsetzen zu können,da 3s sich um ein open Sourcecode Anwendung handelt.</t>
-  </si>
-  <si>
-    <t>Sprecher sehr abwechslungsreich und jeder mit seiner Individualität förderlich um die vielenInhalte aufzunehmen und zu verarbeiten.</t>
-  </si>
-  <si>
-    <t>Dokumentation im vorwege zum Ausdruck ermöglichen, um Papierl3se4n Anwender neben dem Additive und optischen Videoeindruck die Vertiefung beim Lesen / Nachlesen zu geben.</t>
-  </si>
-  <si>
-    <t>QGIS als Schulugsangebot ist viel zu wenig publik. Es sollte stärker in die Öffentlichkeit an die jeweiligen Zielgruppen herangetragen werden.</t>
-  </si>
-  <si>
-    <t>Das Programm zu verstehen und Daten Dritter öffnen und lesen zu können. _x000D_Mittelfristig auch um später für kleinere Projekte eigene Datensätze zu produzieren.</t>
-  </si>
-  <si>
-    <t>Wenn ich mir die Zeit nahm die Aufgaben zu bearbeiten, war ja gerade keine Online Sprechstunde. Mich da erst anzumelden und abzuwarten, dazu bin ich zu ungeduldig und ausgelastet mit anderen Dingen. Habe mir durch Kollegen helfen lassen, oder erneut nachgelesen/ Videos angesehen und die Probleme selber lösen können.</t>
-  </si>
-  <si>
-    <t>Die Systematik / Namen der Koordinatensysteme blieben für mich unverständlich.</t>
-  </si>
-  <si>
-    <t>Ich sehe mich eingeschränkt in der Lage. Gerne würde ich weiterhin auf die Videos zugreifen können. Die erledigten Aufgaben könnte ich schon jetzt ohne die mindestens schriftliche Anleitung nicht mehr erstellen. Ich habe die Lehreinheiten in zu großem Abstand erledigt. Die Erinnerung, an die an sich einfachen Dinge, ist bei mir zu kurzzeitig. Direkt nach dem Video ist alles paletti. Ein paar Tage später fehlt schon die Erinnerung an die richtige Arbeitsreihenfolge, die Schaltflächen und die vielen Untermenüs.</t>
-  </si>
-  <si>
-    <t>Wenn ich ehrlich bin ist mein "Schweinehund" groß. Ich konnte es bisher umgehen Q-gis nutzen zu müssen. Wenn ich nun im vollgepackten Arbeitsalltag Q-Gis nutzen könnte, werde ich sicherlich aus Zeitnot in alte Alternativarbeitsweisen zurück fallen (z.B. mir vom AN PDF Dateien liefern lassen, Datenrecherche über Umweltatlas..). Wenn meine Arbeitsauslastung aber Spielraum lässt kann ich mir Vorstellen, mit anfangs höherem Zeitaufwand mit Q-gis tolle neue Nutzungsfelder zu erobern.</t>
-  </si>
-  <si>
-    <t>Freie Zeiteinteilung_x000D_Abholung vom absolut unwissenden in machbaren Schritten_x000D_Stopp und Wiederholung der Videos bringen stressfreie Schulungen</t>
-  </si>
-  <si>
-    <t>Mich würde noch interessieren, wie ich offen zugängliche Daten (z.B. des Umweltatlasses oder Open Street map (ohne die Daten ihrer Lektion zu Nutzen) in mein Projekt integriere.</t>
-  </si>
-  <si>
-    <t>Die Schulung war für mich interessant und nicht zu schwer. Ich war motiviert weiter zu machen. Leider hat die freie Zeiteinteilung auch  den Nachteil, das keine feste Zeiteinheit hierfür festgelegt ist. Anderes ist dann dauernd wichtiger. Als ich anfangs ganz blöde Fehler machte war ich schnell frustriert. (z.B. hatte ich alles markiert und es war gelb anstatt die zugewiesene Farbe zu zeigen) In einer Online Fortbildung in Life wäre so ein Fehler mit einer Frage in Echtzeit gelöst worden. Die Ansprachen vor den Videos waren auch bei manchmal ein wenig entkoppeltem Ton zur Lippenbewegung mit Personenbild deutlich fesselnder als nur eine Tonspur zum Standbild. Herzlichen Dank für ihre Mühen, alles in allem hat sich die Fortbildung für mich sehr gelohnt und die Tür zu Q-gis erstmalig geöffnet.</t>
-  </si>
-  <si>
-    <t>Mir fiel der autodidaktische Einstieg in QGIS schwer, weshalb ich mich bislang damit auch noch nicht näher beschäftigt hatte, sondern doch in den wenigen Fällen, in denen ich es benötigte, zu ArcGIS griff. Nach dieser Schulung sehe ich mich nun in der Lage, eigene kleine Projekte anzugehen. Um dies zu testen, hatte ich auch in der letzten Lektion ein völlig neues Projekt (Einstufung der Badegewässer Innere Schlei) aufgesetzt und mir bis einschließlich Drucklayout viele Stationen des Tutorials in Erinnerung gerufen.</t>
-  </si>
-  <si>
-    <t>Betrachten,Darstellen,Bearbeiten</t>
-  </si>
-  <si>
-    <t>Da ich diese Möglichkeit nicht in Anspruch genommen habe, kann ich hierzu keine Aussage treffen. Hinweise auf externe Quellen wurden meiner Erinnerung nach nur einmal schriftlich gegeben, könnte gerne noch ergänzt werden. Ggf. auch eine Liste mit FAQs, die sich im Lauf der Zeit durch die Fragen der Nutzer ergeben und sich ständig weiter entwickeln lässt.</t>
-  </si>
-  <si>
-    <t>Da ich diese Möglichkeit nicht in Anspruch genommen habe, kann ich hierzu keine Aussage treffen.</t>
-  </si>
-  <si>
-    <t>Ein kleiner Exkurs zu Anbietern von Diensten, die man in das eigene Projekt einbinden könnte, wäre hilfreich, z. B. zu SH-MIS.</t>
-  </si>
-  <si>
-    <t>Kann ich nicht sagen, da ich die gesamte Schulung sehr gelungen finde. Es hat mir Spaß gemacht, die Lektionen durchzugehen. Die Mischung aus Video und textlicher Zusammenfassung kommt meinem Lernstil sehr entgegen. Durch dieses Angebot werden insgesamt verschiedene Lerntypen bedient, es sollte also für jeden etwas dabei sein. Und sowohl ein Video als auch einen Text kann man ja jederzeit passagenweise wiederholen.</t>
-  </si>
-  <si>
-    <t>Wie bereits oben erwähnt: Ein kleiner Exkurs zu Anbietern von Diensten, die man in das eigene Projekt einbinden könnte, wäre hilfreich, z. B. zu SH-MIS._x000D_Noch mehr kleine Aufgaben, um das Gelernte besser zu festigen - können ja auch auf freiwilliger Basis sein für diejenigen, die noch mehr Praxis erwerben wollen.</t>
-  </si>
-  <si>
-    <t>Ich wünsche mir, dass die schriftlichen Anleitungen auch ohne Anmeldung im Olat verwendet werden können, da ich diese gerne als Nachschlagewerk zur Verfügung hätte. Könnte idealerweise auch für die Videos gelten. Gerade nach längeren Pausen können diese sehr sinnvoll sein, wieder in QGIS hineinzukommen._x000D_Ich könnte mir vorstellen, dass es aber auch Lerntypen gibt, für die eine Präsenzschulung doch deutlich effektiver ist, insbesondere bei Personen, die schnell Angst haben, etwas falsch zu machen und nicht wieder zum Ausgangspunkt zurückkommen.</t>
-  </si>
-  <si>
-    <t>Sicherheit in dem Umgang mit Q-Gis zu erlangen. Die Simpelsten Wege für die Bewerkstelligung einfacher Aufgaben zu finden.</t>
-  </si>
-  <si>
-    <t>ArcGIS,QGIS</t>
-  </si>
-  <si>
-    <t>Darstellen,Bearbeiten</t>
-  </si>
-  <si>
-    <t>Verschneidung von Layern</t>
-  </si>
-  <si>
-    <t>gut in den Arbeitsaltag integrierbar. Jeder kann in seinem eigenen Tempo lernen.</t>
-  </si>
-  <si>
-    <t>QGIS kennenlernen - bisher nur Erfahrungen bei ArcGIS.</t>
-  </si>
-  <si>
-    <t>Arbeiten mit der Karte bzw. den Daten</t>
-  </si>
-  <si>
-    <t>Online Verfügbarkeit; Aufbau und Umfang der Inhalte</t>
-  </si>
-  <si>
-    <t>mich hat teilweise das Freischalten von Kursbausteinen genervt. Einige Kurselemente waren nicht sofort verfügbar.</t>
-  </si>
-  <si>
-    <t>ich habe parallel zu den Videos die Arbeitsschritte selbst durchgeführt. Mir war bis zuletzt nicht klar, ob das gewollt ist oder nicht. Hier sollte darüber nachgedacht werden, kurze Pausen in den Videos zu integrieren bzw. Arbeitsaufgaben, um das Gezeigte einmal selbst ausprobieren zu können.</t>
-  </si>
-  <si>
-    <t>mehr über die Möglichkeiten von QGIS zu erfahren_x000D_Daten zu verschneiden_x000D_eigene shapes zu erzeugen</t>
-  </si>
-  <si>
-    <t>Betrachten,Abfragen</t>
-  </si>
-  <si>
-    <t>Online-Sprechstunde nicht genutzt. Keine zeitliche Nähe zur Bearbeitung der Einheiten_x000D_FAQ nicht vorhanden</t>
-  </si>
-  <si>
-    <t>nicht genutzt</t>
-  </si>
-  <si>
-    <t>siehe oben; Verschneidung von Daten</t>
-  </si>
-  <si>
-    <t>Freie Zeiteinteilung; gute Auswahl der Schulungsinhalte; sinnvolle Aufgaben</t>
-  </si>
-  <si>
-    <t>Kurzfristige Hilfe bei Problemen ist in dem Format nicht möglich. Keine Ahnung, wie man das verbessern kann. FAQ ist nicht vorhanden.</t>
-  </si>
-  <si>
-    <t>Um in QGIS Übersichtskarten erstellen zu können</t>
-  </si>
-  <si>
-    <t>ich fand die schriftliche Version gekoppelt mit den Video sehr gut.</t>
   </si>
   <si>
     <t>Ja</t>
@@ -810,7 +459,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1113,15 +762,15 @@
   <dimension ref="A1:BB138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AH16" sqref="AH16"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1210,7 +859,7 @@
         <v>28</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>29</v>
@@ -1285,22 +934,16 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>127</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
       <c r="H2" s="4" t="s">
         <v>53</v>
       </c>
@@ -1371,10 +1014,10 @@
         <v>54</v>
       </c>
       <c r="AK2" s="4" t="s">
-        <v>238</v>
+        <v>121</v>
       </c>
       <c r="AL2" s="4" t="s">
-        <v>238</v>
+        <v>121</v>
       </c>
       <c r="AM2" s="4" t="s">
         <v>54</v>
@@ -1398,16 +1041,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>128</v>
-      </c>
+      <c r="E3" s="4"/>
       <c r="I3">
         <v>5</v>
       </c>
@@ -1469,10 +1110,10 @@
         <v>54</v>
       </c>
       <c r="AK3" s="4" t="s">
-        <v>238</v>
+        <v>121</v>
       </c>
       <c r="AL3" s="4" t="s">
-        <v>238</v>
+        <v>121</v>
       </c>
       <c r="AM3" s="4" t="s">
         <v>54</v>
@@ -1493,16 +1134,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>129</v>
-      </c>
+      <c r="E4" s="4"/>
       <c r="I4">
         <v>5</v>
       </c>
@@ -1564,10 +1203,10 @@
         <v>54</v>
       </c>
       <c r="AK4" s="4" t="s">
-        <v>238</v>
+        <v>121</v>
       </c>
       <c r="AL4" s="4" t="s">
-        <v>238</v>
+        <v>121</v>
       </c>
       <c r="AM4" s="4" t="s">
         <v>54</v>
@@ -1590,31 +1229,21 @@
       <c r="AU4">
         <v>5</v>
       </c>
-      <c r="AV4" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="AW4" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="5" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV4" s="4"/>
+      <c r="AW4" s="4"/>
+    </row>
+    <row r="5" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>134</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
       <c r="H5" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I5">
         <v>5</v>
@@ -1674,16 +1303,14 @@
         <v>4</v>
       </c>
       <c r="AI5" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="AJ5" s="4" t="s">
-        <v>135</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="AJ5" s="4"/>
       <c r="AK5" s="4" t="s">
-        <v>238</v>
+        <v>121</v>
       </c>
       <c r="AL5" s="4" t="s">
-        <v>238</v>
+        <v>121</v>
       </c>
       <c r="AM5" s="4" t="s">
         <v>54</v>
@@ -1706,34 +1333,22 @@
       <c r="AU5">
         <v>5</v>
       </c>
-      <c r="AV5" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="AW5" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="AX5" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="6" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV5" s="4"/>
+      <c r="AW5" s="4"/>
+      <c r="AX5" s="4"/>
+    </row>
+    <row r="6" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>62</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
       <c r="H6" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I6">
         <v>5</v>
@@ -1780,9 +1395,7 @@
       <c r="X6">
         <v>4</v>
       </c>
-      <c r="AD6" s="4" t="s">
-        <v>140</v>
-      </c>
+      <c r="AD6" s="4"/>
       <c r="AE6">
         <v>4</v>
       </c>
@@ -1799,10 +1412,10 @@
         <v>54</v>
       </c>
       <c r="AK6" s="4" t="s">
-        <v>238</v>
+        <v>121</v>
       </c>
       <c r="AL6" s="4" t="s">
-        <v>238</v>
+        <v>121</v>
       </c>
       <c r="AM6" s="4" t="s">
         <v>54</v>
@@ -1825,37 +1438,23 @@
       <c r="AU6">
         <v>5</v>
       </c>
-      <c r="AV6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="AW6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="AX6" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="AZ6" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="7" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV6" s="4"/>
+      <c r="AW6" s="4"/>
+      <c r="AX6" s="4"/>
+      <c r="AZ6" s="4"/>
+    </row>
+    <row r="7" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>146</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
       <c r="H7" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I7">
         <v>3</v>
@@ -1870,11 +1469,9 @@
         <v>4</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>147</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="N7" s="4"/>
       <c r="O7">
         <v>5</v>
       </c>
@@ -1918,16 +1515,14 @@
         <v>5</v>
       </c>
       <c r="AI7" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="AJ7" s="4" t="s">
-        <v>148</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="AJ7" s="4"/>
       <c r="AK7" s="4" t="s">
-        <v>238</v>
+        <v>121</v>
       </c>
       <c r="AL7" s="4" t="s">
-        <v>238</v>
+        <v>121</v>
       </c>
       <c r="AM7" s="4" t="s">
         <v>54</v>
@@ -1944,31 +1539,21 @@
       <c r="AU7">
         <v>5</v>
       </c>
-      <c r="AV7" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="AW7" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV7" s="4"/>
+      <c r="AW7" s="4"/>
+    </row>
+    <row r="8" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>152</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
       <c r="H8" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I8">
         <v>4</v>
@@ -1983,11 +1568,9 @@
         <v>5</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>153</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="N8" s="4"/>
       <c r="O8">
         <v>3</v>
       </c>
@@ -2042,12 +1625,8 @@
       <c r="AN8" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AO8" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="AP8" s="4" t="s">
-        <v>155</v>
-      </c>
+      <c r="AO8" s="4"/>
+      <c r="AP8" s="4"/>
       <c r="AQ8">
         <v>4</v>
       </c>
@@ -2055,16 +1634,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>156</v>
-      </c>
+      <c r="E9" s="4"/>
       <c r="I9">
         <v>5</v>
       </c>
@@ -2123,11 +1700,9 @@
         <v>3</v>
       </c>
       <c r="AI9" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="AJ9" s="4" t="s">
-        <v>157</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="AJ9" s="4"/>
       <c r="AK9" s="4" t="s">
         <v>54</v>
       </c>
@@ -2140,12 +1715,8 @@
       <c r="AN9" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AO9" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="AP9" s="4" t="s">
-        <v>159</v>
-      </c>
+      <c r="AO9" s="4"/>
+      <c r="AP9" s="4"/>
       <c r="AQ9">
         <v>3</v>
       </c>
@@ -2158,26 +1729,18 @@
       <c r="AU9">
         <v>5</v>
       </c>
-      <c r="AV9" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="AW9" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="AX9" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="10" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV9" s="4"/>
+      <c r="AW9" s="4"/>
+      <c r="AX9" s="4"/>
+    </row>
+    <row r="10" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>163</v>
-      </c>
+      <c r="E10" s="4"/>
       <c r="I10">
         <v>5</v>
       </c>
@@ -2233,7 +1796,7 @@
         <v>54</v>
       </c>
       <c r="AK10" s="4" t="s">
-        <v>238</v>
+        <v>121</v>
       </c>
       <c r="AL10" s="4" t="s">
         <v>54</v>
@@ -2244,9 +1807,7 @@
       <c r="AN10" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AP10" s="4" t="s">
-        <v>164</v>
-      </c>
+      <c r="AP10" s="4"/>
       <c r="AQ10">
         <v>4</v>
       </c>
@@ -2263,16 +1824,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>165</v>
-      </c>
+      <c r="E11" s="4"/>
       <c r="I11">
         <v>5</v>
       </c>
@@ -2286,11 +1845,9 @@
         <v>5</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>166</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="N11" s="4"/>
       <c r="O11">
         <v>4</v>
       </c>
@@ -2318,9 +1875,7 @@
       <c r="X11">
         <v>3</v>
       </c>
-      <c r="AD11" s="4" t="s">
-        <v>167</v>
-      </c>
+      <c r="AD11" s="4"/>
       <c r="AE11">
         <v>4</v>
       </c>
@@ -2334,16 +1889,14 @@
         <v>3</v>
       </c>
       <c r="AI11" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="AJ11" s="4" t="s">
-        <v>169</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="AJ11" s="4"/>
       <c r="AK11" s="4" t="s">
-        <v>238</v>
+        <v>121</v>
       </c>
       <c r="AL11" s="4" t="s">
-        <v>238</v>
+        <v>121</v>
       </c>
       <c r="AM11" s="4" t="s">
         <v>54</v>
@@ -2366,37 +1919,23 @@
       <c r="AU11">
         <v>5</v>
       </c>
-      <c r="AV11" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="AW11" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="AX11" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="AZ11" s="4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="12" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV11" s="4"/>
+      <c r="AW11" s="4"/>
+      <c r="AX11" s="4"/>
+      <c r="AZ11" s="4"/>
+    </row>
+    <row r="12" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>134</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
       <c r="H12" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I12">
         <v>5</v>
@@ -2443,9 +1982,7 @@
       <c r="X12">
         <v>5</v>
       </c>
-      <c r="AD12" s="4" t="s">
-        <v>175</v>
-      </c>
+      <c r="AD12" s="4"/>
       <c r="AE12">
         <v>5</v>
       </c>
@@ -2459,13 +1996,11 @@
         <v>5</v>
       </c>
       <c r="AI12" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="AJ12" s="4" t="s">
-        <v>177</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="AJ12" s="4"/>
       <c r="AK12" s="4" t="s">
-        <v>238</v>
+        <v>121</v>
       </c>
       <c r="AL12" s="4" t="s">
         <v>54</v>
@@ -2476,9 +2011,7 @@
       <c r="AN12" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AP12" s="4" t="s">
-        <v>178</v>
-      </c>
+      <c r="AP12" s="4"/>
       <c r="AQ12">
         <v>1</v>
       </c>
@@ -2494,29 +2027,19 @@
       <c r="AU12">
         <v>5</v>
       </c>
-      <c r="AV12" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="AW12" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="AX12" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="AZ12" s="4" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="13" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV12" s="4"/>
+      <c r="AW12" s="4"/>
+      <c r="AX12" s="4"/>
+      <c r="AZ12" s="4"/>
+    </row>
+    <row r="13" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>182</v>
-      </c>
+      <c r="E13" s="4"/>
       <c r="I13">
         <v>5</v>
       </c>
@@ -2581,10 +2104,10 @@
         <v>54</v>
       </c>
       <c r="AK13" s="4" t="s">
-        <v>238</v>
+        <v>121</v>
       </c>
       <c r="AL13" s="4" t="s">
-        <v>238</v>
+        <v>121</v>
       </c>
       <c r="AM13" s="4" t="s">
         <v>54</v>
@@ -2608,16 +2131,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>183</v>
-      </c>
+      <c r="E14" s="4"/>
       <c r="I14">
         <v>5</v>
       </c>
@@ -2666,9 +2187,7 @@
       <c r="AA14">
         <v>4</v>
       </c>
-      <c r="AD14" s="4" t="s">
-        <v>54</v>
-      </c>
+      <c r="AD14" s="4"/>
       <c r="AE14">
         <v>5</v>
       </c>
@@ -2685,10 +2204,10 @@
         <v>54</v>
       </c>
       <c r="AK14" s="4" t="s">
-        <v>238</v>
+        <v>121</v>
       </c>
       <c r="AL14" s="4" t="s">
-        <v>238</v>
+        <v>121</v>
       </c>
       <c r="AM14" s="4" t="s">
         <v>54</v>
@@ -2712,25 +2231,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="F15" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>56</v>
-      </c>
       <c r="I15">
         <v>4</v>
       </c>
@@ -2744,11 +2257,9 @@
         <v>5</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="N15" s="4" t="s">
-        <v>186</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="N15" s="4"/>
       <c r="O15">
         <v>5</v>
       </c>
@@ -2779,9 +2290,7 @@
       <c r="X15">
         <v>4</v>
       </c>
-      <c r="AD15" s="4" t="s">
-        <v>187</v>
-      </c>
+      <c r="AD15" s="4"/>
       <c r="AE15">
         <v>5</v>
       </c>
@@ -2798,10 +2307,10 @@
         <v>54</v>
       </c>
       <c r="AK15" s="4" t="s">
-        <v>238</v>
+        <v>121</v>
       </c>
       <c r="AL15" s="4" t="s">
-        <v>238</v>
+        <v>121</v>
       </c>
       <c r="AM15" s="4" t="s">
         <v>54</v>
@@ -2824,29 +2333,19 @@
       <c r="AU15">
         <v>5</v>
       </c>
-      <c r="AV15" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="AW15" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="AX15" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="AZ15" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="16" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV15" s="4"/>
+      <c r="AW15" s="4"/>
+      <c r="AX15" s="4"/>
+      <c r="AZ15" s="4"/>
+    </row>
+    <row r="16" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>191</v>
-      </c>
+      <c r="E16" s="4"/>
       <c r="I16">
         <v>5</v>
       </c>
@@ -2895,9 +2394,7 @@
       <c r="AA16">
         <v>4</v>
       </c>
-      <c r="AD16" s="4" t="s">
-        <v>192</v>
-      </c>
+      <c r="AD16" s="4"/>
       <c r="AE16">
         <v>5</v>
       </c>
@@ -2914,10 +2411,10 @@
         <v>54</v>
       </c>
       <c r="AK16" s="4" t="s">
-        <v>238</v>
+        <v>121</v>
       </c>
       <c r="AL16" s="4" t="s">
-        <v>238</v>
+        <v>121</v>
       </c>
       <c r="AM16" s="4" t="s">
         <v>54</v>
@@ -2940,37 +2437,23 @@
       <c r="AU16">
         <v>5</v>
       </c>
-      <c r="AV16" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="AW16" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="AX16" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="AZ16" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="17" spans="2:52" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV16" s="4"/>
+      <c r="AW16" s="4"/>
+      <c r="AX16" s="4"/>
+      <c r="AZ16" s="4"/>
+    </row>
+    <row r="17" spans="2:52" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>198</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
       <c r="H17" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I17">
         <v>4</v>
@@ -3039,10 +2522,10 @@
         <v>54</v>
       </c>
       <c r="AK17" s="4" t="s">
-        <v>238</v>
+        <v>121</v>
       </c>
       <c r="AL17" s="4" t="s">
-        <v>238</v>
+        <v>121</v>
       </c>
       <c r="AM17" s="4" t="s">
         <v>54</v>
@@ -3066,16 +2549,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="2:52" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:52" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>199</v>
-      </c>
+      <c r="E18" s="4"/>
       <c r="I18">
         <v>5</v>
       </c>
@@ -3137,10 +2618,10 @@
         <v>54</v>
       </c>
       <c r="AK18" s="4" t="s">
-        <v>238</v>
+        <v>121</v>
       </c>
       <c r="AL18" s="4" t="s">
-        <v>238</v>
+        <v>121</v>
       </c>
       <c r="AM18" s="4" t="s">
         <v>54</v>
@@ -3163,26 +2644,18 @@
       <c r="AU18">
         <v>5</v>
       </c>
-      <c r="AV18" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="AW18" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="AX18" s="4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="19" spans="2:52" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV18" s="4"/>
+      <c r="AW18" s="4"/>
+      <c r="AX18" s="4"/>
+    </row>
+    <row r="19" spans="2:52" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>203</v>
-      </c>
+      <c r="E19" s="4"/>
       <c r="I19">
         <v>5</v>
       </c>
@@ -3228,9 +2701,7 @@
       <c r="AA19">
         <v>4</v>
       </c>
-      <c r="AD19" s="4" t="s">
-        <v>204</v>
-      </c>
+      <c r="AD19" s="4"/>
       <c r="AE19">
         <v>5</v>
       </c>
@@ -3244,11 +2715,9 @@
         <v>5</v>
       </c>
       <c r="AI19" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="AJ19" s="4" t="s">
-        <v>205</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="AJ19" s="4"/>
       <c r="AK19" s="4" t="s">
         <v>54</v>
       </c>
@@ -3261,12 +2730,8 @@
       <c r="AN19" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AO19" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="AP19" s="4" t="s">
-        <v>207</v>
-      </c>
+      <c r="AO19" s="4"/>
+      <c r="AP19" s="4"/>
       <c r="AQ19">
         <v>5</v>
       </c>
@@ -3282,34 +2747,22 @@
       <c r="AU19">
         <v>3</v>
       </c>
-      <c r="AV19" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="AW19" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX19" s="4" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="20" spans="2:52" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV19" s="4"/>
+      <c r="AW19" s="4"/>
+      <c r="AX19" s="4"/>
+    </row>
+    <row r="20" spans="2:52" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="F20" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="I20">
         <v>5</v>
@@ -3353,9 +2806,7 @@
       <c r="X20">
         <v>4</v>
       </c>
-      <c r="AD20" s="4" t="s">
-        <v>213</v>
-      </c>
+      <c r="AD20" s="4"/>
       <c r="AE20">
         <v>5</v>
       </c>
@@ -3369,16 +2820,14 @@
         <v>5</v>
       </c>
       <c r="AI20" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="AJ20" s="4" t="s">
-        <v>215</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="AJ20" s="4"/>
       <c r="AK20" s="4" t="s">
-        <v>238</v>
+        <v>121</v>
       </c>
       <c r="AL20" s="4" t="s">
-        <v>238</v>
+        <v>121</v>
       </c>
       <c r="AM20" s="4" t="s">
         <v>54</v>
@@ -3401,37 +2850,23 @@
       <c r="AU20">
         <v>5</v>
       </c>
-      <c r="AV20" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="AW20" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="AX20" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="AZ20" s="4" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="21" spans="2:52" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV20" s="4"/>
+      <c r="AW20" s="4"/>
+      <c r="AX20" s="4"/>
+      <c r="AZ20" s="4"/>
+    </row>
+    <row r="21" spans="2:52" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>221</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
       <c r="H21" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I21">
         <v>5</v>
@@ -3491,16 +2926,14 @@
         <v>5</v>
       </c>
       <c r="AI21" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="AJ21" s="4" t="s">
-        <v>222</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="AJ21" s="4"/>
       <c r="AK21" s="4" t="s">
-        <v>238</v>
+        <v>121</v>
       </c>
       <c r="AL21" s="4" t="s">
-        <v>238</v>
+        <v>121</v>
       </c>
       <c r="AM21" s="4" t="s">
         <v>54</v>
@@ -3523,28 +2956,20 @@
       <c r="AU21">
         <v>5</v>
       </c>
-      <c r="AV21" s="4" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="22" spans="2:52" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV21" s="4"/>
+    </row>
+    <row r="22" spans="2:52" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="F22" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="I22">
         <v>5</v>
@@ -3604,16 +3029,14 @@
         <v>2</v>
       </c>
       <c r="AI22" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="AJ22" s="4" t="s">
-        <v>225</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="AJ22" s="4"/>
       <c r="AK22" s="4" t="s">
-        <v>238</v>
+        <v>121</v>
       </c>
       <c r="AL22" s="4" t="s">
-        <v>238</v>
+        <v>121</v>
       </c>
       <c r="AM22" s="4" t="s">
         <v>54</v>
@@ -3636,34 +3059,22 @@
       <c r="AU22">
         <v>5</v>
       </c>
-      <c r="AV22" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="AW22" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="AX22" s="4" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="23" spans="2:52" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV22" s="4"/>
+      <c r="AW22" s="4"/>
+      <c r="AX22" s="4"/>
+    </row>
+    <row r="23" spans="2:52" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>230</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
       <c r="H23" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I23">
         <v>5</v>
@@ -3704,9 +3115,7 @@
       <c r="W23">
         <v>1</v>
       </c>
-      <c r="AD23" s="4" t="s">
-        <v>231</v>
-      </c>
+      <c r="AD23" s="4"/>
       <c r="AE23">
         <v>5</v>
       </c>
@@ -3720,16 +3129,14 @@
         <v>5</v>
       </c>
       <c r="AI23" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="AJ23" s="4" t="s">
-        <v>233</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="AJ23" s="4"/>
       <c r="AK23" s="4" t="s">
-        <v>238</v>
+        <v>121</v>
       </c>
       <c r="AL23" s="4" t="s">
-        <v>238</v>
+        <v>121</v>
       </c>
       <c r="AM23" s="4" t="s">
         <v>54</v>
@@ -3752,26 +3159,18 @@
       <c r="AU23">
         <v>3</v>
       </c>
-      <c r="AV23" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="AW23" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="AZ23" s="4" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="24" spans="2:52" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV23" s="4"/>
+      <c r="AW23" s="4"/>
+      <c r="AZ23" s="4"/>
+    </row>
+    <row r="24" spans="2:52" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>236</v>
-      </c>
+      <c r="E24" s="4"/>
       <c r="I24">
         <v>5</v>
       </c>
@@ -3833,10 +3232,10 @@
         <v>54</v>
       </c>
       <c r="AK24" s="4" t="s">
-        <v>238</v>
+        <v>121</v>
       </c>
       <c r="AL24" s="4" t="s">
-        <v>238</v>
+        <v>121</v>
       </c>
       <c r="AM24" s="4" t="s">
         <v>54</v>
@@ -3859,350 +3258,348 @@
       <c r="AU24">
         <v>4</v>
       </c>
-      <c r="AV24" s="4" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="25" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="AV24" s="4"/>
+    </row>
+    <row r="25" spans="2:52" x14ac:dyDescent="0.35">
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:52" x14ac:dyDescent="0.35">
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:52" x14ac:dyDescent="0.35">
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:52" x14ac:dyDescent="0.35">
       <c r="B28" s="2"/>
     </row>
-    <row r="29" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:52" x14ac:dyDescent="0.35">
       <c r="B29" s="2"/>
     </row>
-    <row r="30" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:52" x14ac:dyDescent="0.35">
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:52" x14ac:dyDescent="0.35">
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="2:52" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:52" x14ac:dyDescent="0.35">
       <c r="B32" s="2"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B33" s="2"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B34" s="2"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B35" s="2"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B36" s="2"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B37" s="2"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B38" s="2"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B40" s="2"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B48" s="2"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B54" s="2"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B55" s="2"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B56" s="2"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B57" s="2"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B58" s="2"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B59" s="2"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B60" s="2"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B61" s="2"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B62" s="2"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B63" s="2"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B64" s="2"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B65" s="2"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B66" s="2"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B67" s="2"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B68" s="2"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B69" s="2"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B70" s="2"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B71" s="2"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B72" s="2"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B73" s="2"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B74" s="2"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B75" s="2"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B76" s="2"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B77" s="2"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B78" s="2"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B79" s="2"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B80" s="2"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B81" s="2"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B82" s="2"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B83" s="2"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B84" s="2"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B85" s="2"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B86" s="2"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B87" s="2"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B88" s="2"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B89" s="2"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B90" s="2"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B91" s="2"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B92" s="2"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B93" s="2"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B94" s="2"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B95" s="2"/>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B96" s="2"/>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B97" s="2"/>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B98" s="2"/>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B99" s="2"/>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B100" s="2"/>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B101" s="2"/>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B102" s="2"/>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B103" s="2"/>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B104" s="2"/>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B105" s="2"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B106" s="2"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B107" s="2"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B108" s="2"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B109" s="2"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B110" s="2"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B111" s="2"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B112" s="2"/>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B113" s="2"/>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B114" s="2"/>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B115" s="2"/>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B116" s="2"/>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B117" s="2"/>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B118" s="2"/>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B119" s="2"/>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B120" s="2"/>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B121" s="2"/>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B122" s="2"/>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B123" s="2"/>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B124" s="2"/>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B125" s="2"/>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B126" s="2"/>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B127" s="2"/>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B128" s="2"/>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B129" s="2"/>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B130" s="2"/>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B131" s="2"/>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B132" s="2"/>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B133" s="2"/>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B134" s="2"/>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B135" s="2"/>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B136" s="2"/>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B137" s="2"/>
     </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B138" s="2"/>
     </row>
   </sheetData>
@@ -4218,26 +3615,26 @@
       <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -4248,10 +3645,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -4262,10 +3659,10 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -4276,13 +3673,13 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4293,13 +3690,13 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -4310,13 +3707,13 @@
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -4327,13 +3724,13 @@
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -4344,13 +3741,13 @@
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -4361,13 +3758,13 @@
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -4378,13 +3775,13 @@
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -4395,13 +3792,13 @@
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -4412,13 +3809,13 @@
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -4429,13 +3826,13 @@
         <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -4446,13 +3843,13 @@
         <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F14" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -4463,13 +3860,13 @@
         <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -4480,13 +3877,13 @@
         <v>14</v>
       </c>
       <c r="E16" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -4497,13 +3894,13 @@
         <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F17" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -4514,13 +3911,13 @@
         <v>16</v>
       </c>
       <c r="E18" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -4531,13 +3928,13 @@
         <v>17</v>
       </c>
       <c r="E19" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -4548,13 +3945,13 @@
         <v>18</v>
       </c>
       <c r="E20" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -4565,13 +3962,13 @@
         <v>19</v>
       </c>
       <c r="E21" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F21" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -4582,13 +3979,13 @@
         <v>20</v>
       </c>
       <c r="E22" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F22" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -4599,13 +3996,13 @@
         <v>21</v>
       </c>
       <c r="E23" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F23" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -4616,13 +4013,13 @@
         <v>22</v>
       </c>
       <c r="E24" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F24" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -4633,13 +4030,13 @@
         <v>23</v>
       </c>
       <c r="E25" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F25" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -4650,13 +4047,13 @@
         <v>24</v>
       </c>
       <c r="E26" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F26" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -4667,13 +4064,13 @@
         <v>25</v>
       </c>
       <c r="E27" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F27" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -4684,13 +4081,13 @@
         <v>26</v>
       </c>
       <c r="E28" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F28" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -4701,13 +4098,13 @@
         <v>27</v>
       </c>
       <c r="E29" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F29" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -4718,13 +4115,13 @@
         <v>28</v>
       </c>
       <c r="E30" t="s">
+        <v>115</v>
+      </c>
+      <c r="F30" t="s">
         <v>120</v>
       </c>
-      <c r="F30" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -4732,16 +4129,16 @@
         <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E31" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F31" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -4752,13 +4149,13 @@
         <v>29</v>
       </c>
       <c r="E32" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F32" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -4769,13 +4166,13 @@
         <v>30</v>
       </c>
       <c r="E33" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F33" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -4786,13 +4183,13 @@
         <v>31</v>
       </c>
       <c r="E34" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F34" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -4803,13 +4200,13 @@
         <v>32</v>
       </c>
       <c r="E35" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F35" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -4820,13 +4217,13 @@
         <v>33</v>
       </c>
       <c r="E36" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F36" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -4837,13 +4234,13 @@
         <v>34</v>
       </c>
       <c r="E37" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F37" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -4854,13 +4251,13 @@
         <v>35</v>
       </c>
       <c r="E38" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F38" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -4871,13 +4268,13 @@
         <v>36</v>
       </c>
       <c r="E39" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F39" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -4888,13 +4285,13 @@
         <v>37</v>
       </c>
       <c r="E40" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F40" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -4905,13 +4302,13 @@
         <v>38</v>
       </c>
       <c r="E41" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F41" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -4922,13 +4319,13 @@
         <v>39</v>
       </c>
       <c r="E42" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F42" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -4939,13 +4336,13 @@
         <v>40</v>
       </c>
       <c r="E43" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F43" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -4956,13 +4353,13 @@
         <v>41</v>
       </c>
       <c r="E44" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F44" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -4973,13 +4370,13 @@
         <v>42</v>
       </c>
       <c r="E45" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F45" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -4990,13 +4387,13 @@
         <v>43</v>
       </c>
       <c r="E46" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F46" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -5007,13 +4404,13 @@
         <v>44</v>
       </c>
       <c r="E47" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F47" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -5024,13 +4421,13 @@
         <v>45</v>
       </c>
       <c r="E48" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F48" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -5041,13 +4438,13 @@
         <v>46</v>
       </c>
       <c r="E49" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F49" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -5058,13 +4455,13 @@
         <v>47</v>
       </c>
       <c r="E50" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F50" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -5075,13 +4472,13 @@
         <v>48</v>
       </c>
       <c r="E51" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F51" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -5092,13 +4489,13 @@
         <v>49</v>
       </c>
       <c r="E52" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F52" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -5109,13 +4506,13 @@
         <v>50</v>
       </c>
       <c r="E53" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F53" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -5126,13 +4523,13 @@
         <v>51</v>
       </c>
       <c r="E54" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F54" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -5143,10 +4540,10 @@
         <v>52</v>
       </c>
       <c r="E55" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F55" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
